--- a/User Story and User Story Scenario_Revisi 2.xlsx
+++ b/User Story and User Story Scenario_Revisi 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirtha\Downloads\Source Code Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCCBA2A-ADC9-4E1B-B938-6016DA0CB22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D946961-4B07-4329-988B-902BE7B6F139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5F51BB78-DCC1-4A75-B6C2-BFA68F37EE24}"/>
   </bookViews>
@@ -1508,64 +1508,6 @@
     <t>Media Pembelajaran</t>
   </si>
   <si>
-    <t>Scenario: Update Assessment Techniques Successfully
-Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
-When I press “Lesson Plan”
-Then I should be on “Lesson Plan Page”
-And the "Lesson Plans Code" field should contain "C012401"
-And the "Course Name" field should contain "Descriptive Statistics"
-And the "Academic Year" field should contain "2024"
-And the "Lesson Plan Semester" field should contain "1"
-When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
-Then I should be on "Lesson Plan Course Detail Page"
-And the "Course Code" field should contain "C01”
-And the "Course Name" field should contain "Descriptive Statistics”
-And the "Course Credits" field should contain "3”
-And the "Semester" field should contain "3”
-And the "Study Program" field should contain "S1 Information Systems"
-And the "Program Learning Outcome" field should contain "PLO1 - Possess the capability for life-long learning.”
-And the “Course Learning Outcome” field should contain “CLO011 - Skilled in articulating fundamental concepts of systems.”
-And the “Course Description” with “Delve into the core principles of Descriptive Statistics, acquiring crucial skills in efficiently organizing and summarizing data to inform strategic decision-making within the realm of Information Systems.”
-And the “Course Prerequisite” field should contain "None"
-When I press "Assessment Techniques"
-Then I should be on “Assessment Techniques Detail Page”
-And the “Assessment Techniques” field should contain “Quiz”
-And the “Assessment Weight” field should contain “30”
-When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/editAssessmentTechnique/C01240101"
-Then I should be on “Assessment Techniques Edit Page”
-And the “Assessment Techniques” field should contain “Quiz”
-When I fill in “Assessment Weight” with “40”
-And I press “Save”
-Then the response should contain “Success! Assessment Technique has been updated.”</t>
-  </si>
-  <si>
-    <t>Scenario: Delete Assessment Techniques Successfully
-Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
-When I press “Lesson Plan”
-Then I should be on “Lesson Plan Page”
-And the "Lesson Plans Code" field should contain "C012401"
-And the "Course Name" field should contain "Descriptive Statistics"
-And the "Academic Year" field should contain "2024"
-And the "Lesson Plan Semester" field should contain "1"
-When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
-Then I should be on "Lesson Plan Course Detail Page"
-And the "Course Code" field should contain "C01”
-And the "Course Name" field should contain "Descriptive Statistics”
-And the "Course Credits" field should contain "3”
-And the "Semester" field should contain "3”
-And the "Study Program" field should contain "S1 Information Systems"
-And the "Program Learning Outcome" field should contain "PLO1 - Possess the capability for life-long learning.”
-And the “Course Learning Outcome” field should contain “CLO011 - Skilled in articulating fundamental concepts of systems.”
-And the “Course Description” with “Delve into the core principles of Descriptive Statistics, acquiring crucial skills in efficiently organizing and summarizing data to inform strategic decision-making within the realm of Information Systems.”
-And the “Course Prerequisite” field should contain "None"
-When I press "Assessment Techniques"
-Then I should be on “Assessment Techniques Detail Page”
-And the “Assessment Techniques” field should contain “Quiz”
-And the “Assessment Weight” field should contain “30”
-When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/deleteAssessmentTechnique/C01240101"
-Then the response should contain “Success! The Assessment Technique has been deleted.”</t>
-  </si>
-  <si>
     <t>Scenario: Export "Lesson Plan" to PDF
 Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
 When I press “Lesson Plan”
@@ -3073,336 +3015,7 @@
 And the response should contain “Lesson plan is not available.”</t>
   </si>
   <si>
-    <t>Scenario: Update Lecturer Roles Successfully
-Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
-When I press “Lesson Plan”
-Then I should be on “Lesson Plan Page”
-And the "Lesson Plans Code" field should contain "C012401"
-And the "Course Name" field should contain "Descriptive Statistics"
-And the "Academic Year" field should contain "2024"
-And the "Lesson Plan Semester" field should contain "1"
-When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
-Then I should be on "Lesson Plan Course Detail Page"
-And the "Course Code" field should contain "C01”
-And the "Course Name" field should contain "Descriptive Statistics”
-And the "Course Credits" field should contain "3”
-And the "Semester" field should contain "3”
-And the "Study Program" field should contain "S1 Information Systems"
-And the "Program Learning Outcome" field should contain "PLO1 - Possess the capability for life-long learning.”
-And the “Course Learning Outcome” field should contain “CLO011 - Skilled in articulating fundamental concepts of systems.”
-And the “Course Description” with “Delve into the core principles of Descriptive Statistics, acquiring crucial skills in efficiently organizing and summarizing data to inform strategic decision-making within the realm of Information Systems.”
-And the “Course Prerequisite” field should contain "None"
-When I press "Lecturer Roles"
-Then I should be on "Lecturer Roles Detail Page"
-And the "Role" field should contain "Lesson Plan Creator” 
-And the "NIP" field should contain "198110282006041003”
-And the "NIP" field should contain "Indra Kharisma R, S.Kom., M.T.”
-When I press "edit"
-Then I should be on "Lecturer Roles Edit Page"
-And the "Lesson Plan Creator" should contain"198110282006041003 - Indra Kharisma R, S.Kom., M.T.” 
-When I select "197102111997021001 - Dr. Rimuljo Hendradi, S.Si., M.Si." from "Lesson Plan Examiner"
-And I select "197102111997021001 - Dr. Rimuljo Hendradi, S.Si., M.Si." from "Lesson Plan Approver"
-And I select "197101042008121001 - Taufik" from "Course Instructor"
-And I press "Add Course Instructor"
-And I select "198105082005012001 - Dr. Eva Hariyanti, S.Si., M.T." from "Course Instructor"
-And I select "198105082005012001 - Dr. Eva Hariyanti, S.Si., M.T." from "Course Coordinator"
-And I press "Edit Lecturer Roles"
-Then the response should contain “Success! Lecturer Roles have been updated.”</t>
-  </si>
-  <si>
-    <t>Scenario: Update Lecturer Roles Failed Due To Empty Data Fields
-Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
-When I press “Lesson Plan”
-Then I should be on “Lesson Plan Page”
-And the "Lesson Plans Code" field should contain "C012401"
-And the "Course Name" field should contain "Descriptive Statistics"
-And the "Academic Year" field should contain "2024"
-And the "Lesson Plan Semester" field should contain "1"
-When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
-Then I should be on "Lesson Plan Course Detail Page"
-And the "Course Code" field should contain "C01”
-And the "Course Name" field should contain "Descriptive Statistics”
-And the "Course Credits" field should contain "3”
-And the "Semester" field should contain "3”
-And the "Study Program" field should contain "S1 Information Systems"
-And the "Program Learning Outcome" field should contain "PLO1 - Possess the capability for life-long learning.”
-And the “Course Learning Outcome” field should contain “CLO011 - Skilled in articulating fundamental concepts of systems.”
-And the “Course Description” with “Delve into the core principles of Descriptive Statistics, acquiring crucial skills in efficiently organizing and summarizing data to inform strategic decision-making within the realm of Information Systems.”
-And the “Course Prerequisite” field should contain "None"
-When I press "Lecturer Role"
-Then I should be on "Lecturer Role Detail Page"
-And the "Role" field should contain "Lesson Plan Creator” 
-And the "NIP" field should contain "198110282006041003”
-And the "NIP" field should contain "Indra Kharisma R, S.Kom., M.T.”
-When I press "edit"
-Then I should be on "Lecturer Role Edit Page"
-And the "Lesson Plan Creator" should contain"198110282006041003 - Indra Kharisma R, S.Kom., M.T.” 
-When I select "197102111997021001 - Dr. Rimuljo Hendradi, S.Si., M.Si." from "Lesson Plan Examiner"
-And I select "197102111997021001 - Dr. Rimuljo Hendradi, S.Si., M.Si." from "Lesson Plan Approver"
-And I select "197101042008121001 - Taufik" from "Course Instructor"
-And I press "Add Course Instructor"
-And I select "198105082005012001 - Dr. Eva Hariyanti, S.Si., M.T." from "Course Instructor"
-And I select "None" from "Course Coordinator"
-And I press "Edit Lecturer Roles"
-Then the response should contain “Course Coordinator field is required”.</t>
-  </si>
-  <si>
-    <t>Scenario: Update Weekly Lesson Plans Successfully
-Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
-When I press “Lesson Plan”
-Then I should be on “Lesson Plan Page”
-And the "Lesson Plans Code" field should contain "C012401"
-And the "Course Name" field should contain "Descriptive Statistics"
-And the "Academic Year" field should contain "2024"
-And the "Lesson Plan Semester" field should contain "1"
-When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
-Then I should be on "Lesson Plan Course Detail Page"
-And the "Course Code" field should contain "C01”
-And the "Course Name" field should contain "Descriptive Statistics”
-And the "Course Credits" field should contain "3”
-And the "Semester" field should contain "3”
-And the "Study Program" field should contain "S1 Information Systems"
-And the "Program Learning Outcome" field should contain "PLO1 - Possess the capability for life-long learning.”
-And the “Course Learning Outcome” field should contain “CLO011 - Skilled in articulating fundamental concepts of systems.”
-And the “Course Description” with “Delve into the core principles of Descriptive Statistics, acquiring crucial skills in efficiently organizing and summarizing data to inform strategic decision-making within the realm of Information Systems.”
-And the “Course Prerequisite” field should contain "None"
-When I press "Weekly Lesson Plans"
-Then I should be on "Weekly Lesson Plans Detail Page"
-And the "Week Number" field should contain "1” 
-When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/editWeeklyLessonPlan/C01240101"
-Then I should be on "Weekly Lesson Plan Edit Page"
-And the "Week Number" should contain"1"
-When I select "CSO0111 - Proficient in clarifying fundamental concepts within systems." from "Course Specific Outcome"
-And I fill in "Course Materials" with "Types of data in Statistics."
-And I select "Practice" from "Form of Learning"
-And I select "Problem Based Learning" from "Learning Method"
-And I fill in "Task" with "Survey Analysis: Identifying Data Types"
-And I select "Offline" from "Learning Approach"
-And I select "LMS" from "Learning Media"
-And I fill in "Time of Learning" with "1x3x50 minutes"
-And I fill in "Learning Experience" with "Ability to understand and summarize the material taught."
-And I select "SBP Criteria" from "Assessment Criteria" 
-And I select "Applied Multivariate Statistical Analysis" from "References"
-And I fill in "Reference Description" with "Provides a comprehensive overview and practical guidance on employing multivariate statistical techniques in analyzing complex data sets"
-And I press "Edit Weekly Lesson Plan"
-Then the response should contain “Success! Weekly Lesson Plan has been updated.”</t>
-  </si>
-  <si>
-    <t>Scenario: Update Weekly Lesson Plans Failed Due To Empty Data Fields 
-Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
-When I press “Lesson Plan”
-Then I should be on “Lesson Plan Page”
-And the "Lesson Plans Code" field should contain "C012401"
-And the "Course Name" field should contain "Descriptive Statistics"
-And the "Academic Year" field should contain "2024"
-And the "Lesson Plan Semester" field should contain "1"
-When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
-Then I should be on "Lesson Plan Course Detail Page"
-And the "Course Code" field should contain "C01”
-And the "Course Name" field should contain "Descriptive Statistics”
-And the "Course Credits" field should contain "3”
-And the "Semester" field should contain "3”
-And the "Study Program" field should contain "S1 Information Systems"
-And the "Program Learning Outcome" field should contain "PLO1 - Possess the capability for life-long learning.”
-And the “Course Learning Outcome” field should contain “CLO011 - Skilled in articulating fundamental concepts of systems.”
-And the “Course Description” with “Delve into the core principles of Descriptive Statistics, acquiring crucial skills in efficiently organizing and summarizing data to inform strategic decision-making within the realm of Information Systems.”
-And the “Course Prerequisite” field should contain "None"
-When I press "Weekly Lesson Plans"
-Then I should be on "Weekly Lesson Plans Detail Page"
-And the "Week Number" field should contain "1” 
-When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/editWeeklyLessonPlan/C01240101"
-Then I should be on "Weekly Lesson Plan Edit Page"
-And the "Week Number" should contain"1"
-When I select "CSO0111 - Proficient in clarifying fundamental concepts within systems." from "Course Specific Outcome"
-And I fill in "Course Materials" with ""
-And I select "Practice" from "Form of Learning"
-And I select "Problem Based Learning" from "Learning Method"
-And I fill in "Task" with "Survey Analysis: Identifying Data Types"
-And I select "Offline" from "Learning Approach"
-And I select "LMS" from "Learning Media"
-And I fill in "Time of Learning" with "1x3x50 minutes"
-And I fill in "Learning Experience" with "Ability to understand and summarize the material taught."
-And I select "SBP Criteria" from "Assessment Criteria" 
-And I select "Applied Multivariate Statistical Analysis" from "References"
-And I fill in "Reference Description" with "Provides a comprehensive overview and practical guidance on employing multivariate statistical techniques in analyzing complex data sets"
-And I press "Edit Weekly Lesson Plan"
-Then the response should contain “Course Materials field is required”</t>
-  </si>
-  <si>
-    <t>Scenario: Update Assessment Techniques Failed as the total weight of the assessments in the lesson plan exceeds 100.
-Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
-When I press “Lesson Plan”
-Then I should be on “Lesson Plan Page”
-And the "Lesson Plans Code" field should contain "C012401"
-And the "Course Name" field should contain "Descriptive Statistics"
-And the "Academic Year" field should contain "2024"
-And the "Lesson Plan Semester" field should contain "1"
-When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
-Then I should be on "Lesson Plan Course Detail Page"
-And the "Course Code" field should contain "C01”
-And the "Course Name" field should contain "Descriptive Statistics”
-And the "Course Credits" field should contain "3”
-And the "Semester" field should contain "3”
-And the "Study Program" field should contain "S1 Information Systems"
-And the "Program Learning Outcome" field should contain "PLO1 - Possess the capability for life-long learning.”
-And the “Course Learning Outcome” field should contain “CLO011 - Skilled in articulating fundamental concepts of systems.”
-And the “Course Description” with “Delve into the core principles of Descriptive Statistics, acquiring crucial skills in efficiently organizing and summarizing data to inform strategic decision-making within the realm of Information Systems.”
-And the “Course Prerequisite” field should contain "None"
-When I press "Assessment Techniques"
-Then I should be on “Assessment Techniques Detail Page”
-And the “Assessment Techniques” field should contain “Quiz”
-And the “Assessment Weight” field should contain “30”
-When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/editAssessmentTechnique/C01240101"
-Then I should be on “Assessment Techniques Edit Page”
-And the “Assessment Techniques” field should contain “Quiz”
-When I fill in “Assessment Weight” with “105”
-And I press “Edit Assessment Technique”
-Then the response should contain “the total weight of the assessments in the lesson plan exceeds 100.”</t>
-  </si>
-  <si>
-    <t>Scenario: Update Assessment Techniques Failed Due to Empty Data Fields 
-Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
-When I press “Lesson Plan”
-Then I should be on “Lesson Plan Page”
-And the "Lesson Plans Code" field should contain "C012401"
-And the "Course Name" field should contain "Descriptive Statistics"
-And the "Academic Year" field should contain "2024"
-And the "Lesson Plan Semester" field should contain "1"
-When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
-Then I should be on "Lesson Plan Course Detail Page"
-And the "Course Code" field should contain "C01”
-And the "Course Name" field should contain "Descriptive Statistics”
-And the "Course Credits" field should contain "3”
-And the "Semester" field should contain "3”
-And the "Study Program" field should contain "S1 Information Systems"
-And the "Program Learning Outcome" field should contain "PLO1 - Possess the capability for life-long learning.”
-And the “Course Learning Outcome” field should contain “CLO011 - Skilled in articulating fundamental concepts of systems.”
-And the “Course Description” with “Delve into the core principles of Descriptive Statistics, acquiring crucial skills in efficiently organizing and summarizing data to inform strategic decision-making within the realm of Information Systems.”
-And the “Course Prerequisite” field should contain "None"
-When I press "Assessment Techniques"
-Then I should be on “Assessment Techniques Detail Page”
-And the “Assessment Techniques” field should contain “Quiz”
-And the “Assessment Weight” field should contain “30”
-When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/editAssessmentTechnique/C01240101"
-Then I should be on “Assessment Techniques Edit Page”
-And the “Assessment Techniques” field should contain “Quiz”
-When I fill in “Assessment Weight” with “”
-And I press “Edit Assessment Technique”
-Then the response should contain “Assessment Weight field is required."</t>
-  </si>
-  <si>
     <t>Read Lesson Plan Details</t>
-  </si>
-  <si>
-    <t>Scenario: Read Lecturer Roles Successfully
-Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
-When I press “Lesson Plan”
-Then I should be on “Lesson Plan Page”
-And the "Lesson Plans Code" field should contain "C012401"
-And the "Course Name" field should contain "Descriptive Statistics"
-And the "Academic Year" field should contain "2024"
-And the "Lesson Plan Semester" field should contain "1"
-When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
-Then I should be on "Lesson Plan Course Detail Page"
-And the "Course Code" field should contain "C01”
-And the "Course Name" field should contain "Descriptive Statistics”
-And the "Course Credits" field should contain "3”
-And the "Semester" field should contain "3”
-And the "Study Program" field should contain "S1 Information Systems"
-And the "Program Learning Outcome" field should contain "PLO1 - Possess the capability for life-long learning.”
-And the “Course Learning Outcome” field should contain “CLO011 - Skilled in articulating fundamental concepts of systems.”
-And the “Course Description” with “Delve into the core principles of Descriptive Statistics, acquiring crucial skills in efficiently organizing and summarizing data to inform strategic decision-making within the realm of Information Systems.”
-And the “Course Prerequisite” field should contain "None"
-When I press "Lecturer Roles"
-Then I should be on "Lecturer Roles Detail Page"
-And the "Role" field should contain "Lesson Plan Creator” 
-And the "NIP" field should contain "198110282006041003”
-And the "NIP" field should contain "Indra Kharisma R, S.Kom., M.T.”</t>
-  </si>
-  <si>
-    <t>Scenario: Read Weekly Lesson Plans Successfully
-Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
-When I press “Lesson Plan”
-Then I should be on “Lesson Plan Page”
-And the "Lesson Plans Code" field should contain "C012401"
-And the "Course Name" field should contain "Descriptive Statistics"
-And the "Academic Year" field should contain "2024"
-And the "Lesson Plan Semester" field should contain "1"
-When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
-Then I should be on "Lesson Plan Course Detail Page"
-And the "Course Code" field should contain "C01”
-And the "Course Name" field should contain "Descriptive Statistics”
-And the "Course Credits" field should contain "3”
-And the "Semester" field should contain "3”
-And the "Study Program" field should contain "S1 Information Systems"
-And the "Program Learning Outcome" field should contain "PLO1 - Possess the capability for life-long learning.”
-And the “Course Learning Outcome” field should contain “CLO011 - Skilled in articulating fundamental concepts of systems.”
-And the “Course Description” with “Delve into the core principles of Descriptive Statistics, acquiring crucial skills in efficiently organizing and summarizing data to inform strategic decision-making within the realm of Information Systems.”
-And the “Course Prerequisite” field should contain "None"
-When I press "Weekly Lesson Plans"
-Then I should be on "Weekly Lesson Plans Detail Page"
-And the "Week Number" field should contain "1” 
-And the "Course Specific Outcome" field should contain "CSO0111 - Proficient in clarifying fundamental concepts within systems."
-And the "Course Materials" field should contain "Types of data in Statistics."
-And the "Form of Learning" field should contain "Practice"
-And the "Learning Method" field should contain "Problem Based Learning"
-And the "Task" field should contain "Survey Analysis: Identifying Data Types"
-And the "Learning Approach" field should contain "Offline"
-And the "Learning Media" field should contain "LMS" 
-And the "Time of Learning" field should contain "1x3x50 minutes"
-And the "Learning Experience" field should contain "Ability to understand and summarize the material taught."
-And the "Assessment Criteria" field should contain "SBP Criteria"  
-And the "References" field should contain "Applied Multivariate Statistical Analysis" 
-And the "Reference Description" field should contain "Provides a comprehensive overview and practical guidance on employing multivariate statistical techniques in analyzing complex data sets"</t>
-  </si>
-  <si>
-    <t>Scenario: Read Assessment Techniques Successfully
-Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
-When I press “Lesson Plan”
-Then I should be on “Lesson Plan Page”
-And the "Lesson Plans Code" field should contain "C012401"
-And the "Course Name" field should contain "Descriptive Statistics"
-And the "Academic Year" field should contain "2024"
-And the "Lesson Plan Semester" field should contain "1"
-When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
-Then I should be on "Lesson Plan Course Detail Page"
-And the "Course Code" field should contain "C01”
-And the "Course Name" field should contain "Descriptive Statistics”
-And the "Course Credits" field should contain "3”
-And the "Semester" field should contain "3”
-And the "Study Program" field should contain "S1 Information Systems"
-And the "Program Learning Outcome" field should contain "PLO1 - Possess the capability for life-long learning.”
-And the “Course Learning Outcome” field should contain “CLO011 - Skilled in articulating fundamental concepts of systems.”
-And the “Course Description” with “Delve into the core principles of Descriptive Statistics, acquiring crucial skills in efficiently organizing and summarizing data to inform strategic decision-making within the realm of Information Systems.”
-And the “Course Prerequisite” field should contain "None"
-When I press "Assessment Techniques"
-Then I should be on “Assessment Techniques Detail Page”
-And the “Assessment Techniques” field should contain “Quiz”
-And the “Assessment Weight” field should contain “30”</t>
-  </si>
-  <si>
-    <t>Scenario: Read Assessment Techniques Failed due to unavailability
-Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
-When I press “Lesson Plan”
-Then I should be on “Lesson Plan Page”
-And the "Lesson Plans Code" field should contain "C012401"
-And the "Course Name" field should contain "Descriptive Statistics"
-And the "Academic Year" field should contain "2024"
-And the "Lesson Plan Semester" field should contain "1"
-When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
-Then I should be on "Lesson Plan Course Detail Page"
-And the "Course Code" field should contain "C01”
-And the "Course Name" field should contain "Descriptive Statistics”
-And the "Course Credits" field should contain "3”
-And the "Semester" field should contain "3”
-And the "Study Program" field should contain "S1 Information Systems"
-And the "Program Learning Outcome" field should contain "PLO1 - Possess the capability for life-long learning.”
-And the “Course Learning Outcome” field should contain “CLO011 - Skilled in articulating fundamental concepts of systems.”
-And the “Course Description” with “Delve into the core principles of Descriptive Statistics, acquiring crucial skills in efficiently organizing and summarizing data to inform strategic decision-making within the realm of Information Systems.”
-And the “Course Prerequisite” field should contain "None"
-When I press "Assessment Techniques"
-Then I should be on “Assessment Techniques Detail Page”
-And the response should contain “Assessment Techniques are not available.”</t>
   </si>
   <si>
     <t xml:space="preserve">Scenario: Read Lesson Plan Detail Successfully
@@ -3758,7 +3371,538 @@
 Then the response should contain “Assessment Criteria Description field is required”.</t>
   </si>
   <si>
-    <t>Scenario: Delete mapping between Program Learning Outcomes, Course Learning Outcomes, and Successfully
+    <t>Read Mapping between Course, Course Learning Outcomes, and Course Specific Outcomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenario: Login Successfully as Curriculum Team Member
+Given I am on “http://127.0.0.1:8000/login”
+When I fill in “NIP” with “197801262006041001”
+And I fill in “Password” with “coba123”
+And I press “Login”
+Then the url should match “http://127.0.0.1:8000/dashboard/curriculum”
+And the “Lecturer Name” field should contain “Badrus Zaman, S.Kom., M.Cs.”	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenario: Login Successfully as Lecturer 
+Given I am on “http://127.0.0.1:8000/login”
+When I fill in “NIP” with “198110282006041003”
+And I fill in “Password” with “coba123”
+And I press “Login”
+Then the url should match “http://127.0.0.1:8000/dashboard/lecturer”
+And the “Lecturer Name” field should contain “Indra Kharisma R, S.Kom., M.T.”"	</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Scenario: Log out Successfully 
+Given I am on “http://127.0.0.1:8000/dashboard/admin”
+When I press "Log Out"
+Then the url should match “http://127.0.0.1:8000/login”</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In order to log in to the system in case I forget my password
+As Lecturer,
+I want the capability to reset my password </t>
+  </si>
+  <si>
+    <t>In order to secure my account
+As Lecturer,
+I want the capability to change my password</t>
+  </si>
+  <si>
+    <t>Scenario: Create Learning Methods Failed Due to Empty Data Fields
+Given I am on “http://127.0.0.1:8000/dashboard/curriculum”
+When I press “Data”
+And I press “Learning Methods”
+Then I should be on “Learning Methods Page”
+When I press “Add Learning Methods”
+Then I should be on “Learning Methods Creation Page”
+When I fill in “Learning Method Name” with “Problem Based Learning”
+And I press “Add Learning Method”
+Then the response should contain “Learning Method Description field is required”.</t>
+  </si>
+  <si>
+    <t>Scenario: Update Learning Methods Successfully
+Given I am on “http://127.0.0.1:8000/dashboard/curriculum”
+When I press “Data”
+And I press “Learning Methods”
+Then I should be on “Learning Methods Page”
+And the “Learning Methods Name” field should contain “Problem Based Learning”
+When I follow "http://127.0.0.1:8000/dashboard/curriculum/data/editLearningMethods/1"
+Then I should be on “Learning Methods Edit Page”
+And the “Learning Method Name” field should contain “Problem Based Learning”
+When I fill in “Learning Method Description” with “Problem-Based Learning (PBL) is an instructional method that places emphasis on active learning, critical thinking, and problem-solving skills.”
+And I press “Edit Learning Method”
+Then the response should contain “Success! Learning Method has been updated.”</t>
+  </si>
+  <si>
+    <t>Scenario: Update Learning Methods failed Due to Empty Data Fields
+Given I am on “http://127.0.0.1:8000/dashboard/curriculum”
+When I press “Data”
+And I press “Learning Methods”
+Then I should be on “Learning Methods Page”
+And the “Learning Methods Name” field should contain “Problem Based Learning”
+When I follow "http://127.0.0.1:8000/dashboard/curriculum/data/editLearningMethods/1"
+Then I should be on “Learning Methods Edit Page”
+And the “Learning Method Name” field should contain “Problem Based Learning”
+When I fill in “Learning Method Description” with “”
+And I press “Edit Learning Method”
+Then the response should contain “Learning Method Description field is required”.</t>
+  </si>
+  <si>
+    <t>Scenario: Update Forms of Learning failed Due to Empty Data Fields
+Given I am on “http://127.0.0.1:8000/dashboard/curriculum”
+When I press “Data”
+And I press “Learning Methods”
+Then I should be on “Learning Methods Page”
+And the “Forms of Learning Name” field should contain “Practice”
+When I follow "http://127.0.0.1:8000/dashboard/curriculum/data/editFormsOfLearning/1"
+Then I should be on “Forms of Learning Edit Page”
+And the “Forms of Learning Name” field should contain “Practice”
+When I fill in “Forms of Learning Description” with “”
+And I press “Edit Learning Method”
+Then the response should contain “Form of Learning Description field is required”.</t>
+  </si>
+  <si>
+    <t>Scenario: Update Forms of Learning Successfully
+Given I am on “http://127.0.0.1:8000/dashboard/curriculum”
+When I press “Data”
+And I press “Learning Methods”
+Then I should be on “Learning Methods Page”
+And the “Forms of Learning Name” field should contain “Practice”
+When I follow "http://127.0.0.1:8000/dashboard/curriculum/data/editFormsOfLearning/1"
+Then I should be on “Forms of Learning Edit Page”
+And the “Forms of Learning Name” field should contain “Practice”
+When I fill in “Forms of Learning Description” with “a hands-on learning experience where students apply theoretical knowledge in a practical setting, often in a laboratory, workshop, or other controlled environment.”
+And I press “Edit Learning Method”
+Then the response should contain “Success! Form of Learning has been updated.”</t>
+  </si>
+  <si>
+    <t>Scenario: Update Learning Media failed Due to Empty Data Fields
+Given I am on “http://127.0.0.1:8000/dashboard/curriculum”
+When I press “Data”
+And I press “Learning Methods”
+Then I should be on “Learning Methods Page”
+And the “Learning Media Name” field should contain “LMS”
+When I follow "http://127.0.0.1:8000/dashboard/curriculum/data/editLearningMedia/1"
+Then I should be on “Learning Media Edit Page”
+And the “Learning Media Name” field should contain “LMS”
+When I fill in “Learning Media Description” with “”
+And I press “Edit Learning Method”
+Then the response should contain “Learning Media Description field is required”.</t>
+  </si>
+  <si>
+    <t>Scenario: Update Learning Media Successfully
+Given I am on “http://127.0.0.1:8000/dashboard/curriculum”
+When I press “Data”
+And I press “Learning Methods”
+Then I should be on “Learning Methods Page”
+And the “Learning Media Name” field should contain “LMS”
+When I follow "http://127.0.0.1:8000/dashboard/curriculum/data/editLearningMedia/1"
+Then I should be on “Learning Media Edit Page”
+And the “Learning Media Name” field should contain “LMS”
+When I fill in “Learning Media Description” with “Platform that facilitates the administration, documentation, tracking, reporting, and delivery of educational courses, training programs, or learning and development programs.”
+Then the response should contain “Success! Learning Media has been updated.”</t>
+  </si>
+  <si>
+    <t>Scenario: Update Assessment Criteria failed Due to Empty Data Fields
+Given I am on “http://127.0.0.1:8000/dashboard/curriculum”
+When I press “Data”
+And I press “Assessment Criteria”
+Then I should be on “Assessment Criteria Page”
+And the “Assessment Criteria Name” field should contain “SBP Criteria”
+When I follow "http://127.0.0.1:8000/dashboard/curriculum/data/editLearningMethods/1"
+Then I should be on “Assessment Criteria Edit Page”
+And the “Assessment Criteria Name” field should contain “SBP Criteria”
+When I fill in “Assessment Criteria Description” with “”
+And I press “Edit Assessment Criteria”
+Then the response should contain “Assessment Criteria Description field is required”.</t>
+  </si>
+  <si>
+    <t>Scenario: Update Assessment Criteria Successfully
+Given I am on “http://127.0.0.1:8000/dashboard/curriculum”
+When I press “Data”
+And I press “Assessment Criteria”
+Then I should be on “Assessment Criteria Page”
+And the “Assessment Criteria Name” field should contain “SBP Criteria”
+When I follow "http://127.0.0.1:8000/dashboard/curriculum/data/editLearningMethods/1"
+Then I should be on “Assessment Criteria Edit Page”
+And the “Assessment Criteria Name” field should contain “SBP Criteria”
+When I fill in “Assessment Criteria Description” with “Comprehension of the material, clarity in understanding tasks, diligence in completing assignments, and active participation in discussions.”
+And I press “Edit Assessment Criteria”
+Then the response should contain “Success! Assessment Criteria has been updated.”</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>XXL</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Effort</t>
+  </si>
+  <si>
+    <t>Scenario: Update Lecturer Roles Successfully
+Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
+When I press “Lesson Plan”
+Then I should be on “Lesson Plan Page”
+And the "Lesson Plans Code" field should contain "C012401"
+And the "Academic Year" field should contain "2024"
+And the "Lesson Plan Semester" field should contain "1"
+When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
+Then I should be on "Lesson Plan Course Detail Page"
+And the "Course Code" field should contain "C01”
+When I press "Lecturer Roles"
+Then I should be on "Lecturer Roles Detail Page"
+And the "Role" field should contain "Lesson Plan Creator” 
+And the "NIP" field should contain "198110282006041003”
+And the "NIP" field should contain "Indra Kharisma R, S.Kom., M.T.”
+When I press "edit"
+Then I should be on "Lecturer Roles Edit Page"
+And the "Lesson Plan Creator" should contain"198110282006041003 - Indra Kharisma R, S.Kom., M.T.” 
+When I select "197102111997021001 - Dr. Rimuljo Hendradi, S.Si., M.Si." from "Lesson Plan Examiner"
+And I select "197102111997021001 - Dr. Rimuljo Hendradi, S.Si., M.Si." from "Lesson Plan Approver"
+And I select "197101042008121001 - Taufik" from "Course Instructor"
+And I press "Add Course Instructor"
+And I select "198105082005012001 - Dr. Eva Hariyanti, S.Si., M.T." from "Course Instructor"
+And I select "198105082005012001 - Dr. Eva Hariyanti, S.Si., M.T." from "Course Coordinator"
+And I press "Edit Lecturer Roles"
+Then the response should contain “Success! Lecturer Roles have been updated.”</t>
+  </si>
+  <si>
+    <t>Scenario: Update Lecturer Roles Failed Due To Empty Data Fields
+Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
+When I press “Lesson Plan”
+Then I should be on “Lesson Plan Page”
+And the "Lesson Plans Code" field should contain "C012401"
+And the "Academic Year" field should contain "2024"
+And the "Lesson Plan Semester" field should contain "1"
+When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
+Then I should be on "Lesson Plan Course Detail Page"
+And the "Course Code" field should contain "C01”
+When I press "Lecturer Role"
+Then I should be on "Lecturer Role Detail Page"
+And the "Role" field should contain "Lesson Plan Creator” 
+And the "NIP" field should contain "198110282006041003”
+And the "NIP" field should contain "Indra Kharisma R, S.Kom., M.T.”
+When I press "edit"
+Then I should be on "Lecturer Role Edit Page"
+And the "Lesson Plan Creator" should contain"198110282006041003 - Indra Kharisma R, S.Kom., M.T.” 
+When I select "197102111997021001 - Dr. Rimuljo Hendradi, S.Si., M.Si." from "Lesson Plan Examiner"
+And I select "197102111997021001 - Dr. Rimuljo Hendradi, S.Si., M.Si." from "Lesson Plan Approver"
+And I select "197101042008121001 - Taufik" from "Course Instructor"
+And I press "Add Course Instructor"
+And I select "198105082005012001 - Dr. Eva Hariyanti, S.Si., M.T." from "Course Instructor"
+And I select "None" from "Course Coordinator"
+And I press "Edit Lecturer Roles"
+Then the response should contain “Course Coordinator field is required”.</t>
+  </si>
+  <si>
+    <t>Scenario: Update Weekly Lesson Plans Successfully
+Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
+When I press “Lesson Plan”
+Then I should be on “Lesson Plan Page”
+And the "Lesson Plans Code" field should contain "C012401"
+And the "Academic Year" field should contain "2024"
+And the "Lesson Plan Semester" field should contain "1"
+When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
+Then I should be on "Lesson Plan Course Detail Page"
+And the "Course Code" field should contain "C01”
+When I press "Weekly Lesson Plans"
+Then I should be on "Weekly Lesson Plans Detail Page"
+And the "Week Number" field should contain "1” 
+When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/editWeeklyLessonPlan/C01240101"
+Then I should be on "Weekly Lesson Plan Edit Page"
+And the "Week Number" should contain"1"
+When I select "CSO0111 - Proficient in clarifying fundamental concepts within systems." from "Course Specific Outcome"
+And I fill in "Course Materials" with "Types of data in Statistics."
+And I select "Practice" from "Form of Learning"
+And I select "Problem Based Learning" from "Learning Method"
+And I fill in "Task" with "Survey Analysis: Identifying Data Types"
+And I select "Offline" from "Learning Approach"
+And I select "LMS" from "Learning Media"
+And I fill in "Time of Learning" with "1x3x50 minutes"
+And I fill in "Learning Experience" with "Ability to understand and summarize the material taught."
+And I select "SBP Criteria" from "Assessment Criteria" 
+And I select "Applied Multivariate Statistical Analysis" from "References"
+And I fill in "Reference Description" with "Provides a comprehensive overview and practical guidance on employing multivariate statistical techniques in analyzing complex data sets"
+And I press "Edit Weekly Lesson Plan"
+Then the response should contain “Success! Weekly Lesson Plan has been updated.”</t>
+  </si>
+  <si>
+    <t>Scenario: Update Weekly Lesson Plans Failed Due To Empty Data Fields 
+Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
+When I press “Lesson Plan”
+Then I should be on “Lesson Plan Page”
+And the "Lesson Plans Code" field should contain "C012401"
+And the "Academic Year" field should contain "2024"
+And the "Lesson Plan Semester" field should contain "1"
+When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
+Then I should be on "Lesson Plan Course Detail Page"
+And the "Course Code" field should contain "C01”
+When I press "Weekly Lesson Plans"
+Then I should be on "Weekly Lesson Plans Detail Page"
+And the "Week Number" field should contain "1” 
+When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/editWeeklyLessonPlan/C01240101"
+Then I should be on "Weekly Lesson Plan Edit Page"
+And the "Week Number" should contain"1"
+When I select "CSO0111 - Proficient in clarifying fundamental concepts within systems." from "Course Specific Outcome"
+And I fill in "Course Materials" with ""
+And I select "Practice" from "Form of Learning"
+And I select "Problem Based Learning" from "Learning Method"
+And I fill in "Task" with "Survey Analysis: Identifying Data Types"
+And I select "Offline" from "Learning Approach"
+And I select "LMS" from "Learning Media"
+And I fill in "Time of Learning" with "1x3x50 minutes"
+And I fill in "Learning Experience" with "Ability to understand and summarize the material taught."
+And I select "SBP Criteria" from "Assessment Criteria" 
+And I select "Applied Multivariate Statistical Analysis" from "References"
+And I fill in "Reference Description" with "Provides a comprehensive overview and practical guidance on employing multivariate statistical techniques in analyzing complex data sets"
+And I press "Edit Weekly Lesson Plan"
+Then the response should contain “Course Materials field is required”</t>
+  </si>
+  <si>
+    <t>Scenario: Create Assessment Technique Successfully
+Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
+When I press “Lesson Plan”
+Then I should be on “Lesson Plan Page”
+And the "Lesson Plans Code" field should contain "C012401"
+And the "Academic Year" field should contain "2024"
+And the "Lesson Plan Semester" field should contain "1"
+When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
+Then I should be on "Lesson Plan Course Detail Page"
+And the "Course Code" field should contain "C01”
+When I press "Assessment Techniques"
+Then I should be on “Assessment Techniques Detail Page”
+When I press “Add”
+Then I should be on “Assessment Techniques Creation Page”
+When I fill in “Assessment Techniques Name” with “Quiz”
+And I fill in “Assessment Weight” with “30”
+And I select "SBP Criteria" from "Assessment Criteria" 
+And I fill in “Assessment Stage” with “Beginning of semester”
+And I fill in “Assessment Instrument” with “Holistic rubric”
+And I press “Add Assessment Techniques”
+Then The response should contain “Success! Assessment Technique has been added.”</t>
+  </si>
+  <si>
+    <t>Scenario: Create Assessment Technique Failed as the total weight of the assessments in the lesson plan exceeds 100.
+Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
+When I press “Lesson Plan”
+Then I should be on “Lesson Plan Page”
+And the "Lesson Plans Code" field should contain "C012401"
+And the "Academic Year" field should contain "2024"
+And the "Lesson Plan Semester" field should contain "1"
+When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
+Then I should be on "Lesson Plan Course Detail Page"
+And the "Course Code" field should contain "C01”
+When I press "Assessment Techniques"
+Then I should be on “Assessment Techniques Detail Page”
+When I press “Add”
+Then I should be on “Assessment Techniques Creation Page”
+When I fill in “Assessment Techniques Name” with “Quiz”
+And I fill in “Assessment Weight” with “105”
+And I select "SBP Criteria" from "Assessment Criteria" 
+And I fill in “Assessment Stage” with “Beginning of semester”
+And I fill in “Assessment Instrument” with “Holistic rubric”
+And I press “Add Assessment Techniques”
+Then The response should contain “the total weight of the assessments in the lesson plan exceeds 100.”</t>
+  </si>
+  <si>
+    <t>Scenario: Create Assessment Technique Failed Due to Empty Data Fields
+Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
+When I press “Lesson Plan”
+Then I should be on “Lesson Plan Page”
+And the "Lesson Plans Code" field should contain "C012401"
+And the "Academic Year" field should contain "2024"
+And the "Lesson Plan Semester" field should contain "1"
+When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
+Then I should be on "Lesson Plan Course Detail Page"
+And the "Course Code" field should contain "C01”
+When I press "Assessment Techniques"
+Then I should be on “Assessment Techniques Detail Page”
+When I press “Add”
+Then I should be on “Assessment Techniques Creation Page”
+When I fill in “Assessment Techniques Name” with “Quiz”
+And I select "SBP Criteria" from "Assessment Criteria" 
+And I fill in “Assessment Stage” with “End of semester”
+And I fill in “Assessment Instrument” with “Holistic rubric”
+And I press “Add Assessment Techniques”
+Then the response should contain “Assessment Weight field is required”.</t>
+  </si>
+  <si>
+    <t>Scenario: Update Assessment Techniques Successfully
+Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
+When I press “Lesson Plan”
+Then I should be on “Lesson Plan Page”
+And the "Lesson Plans Code" field should contain "C012401"
+And the "Academic Year" field should contain "2024"
+And the "Lesson Plan Semester" field should contain "1"
+When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
+Then I should be on "Lesson Plan Course Detail Page"
+And the "Course Code" field should contain "C01”
+When I press "Assessment Techniques"
+Then I should be on “Assessment Techniques Detail Page”
+And the “Assessment Techniques” field should contain “Quiz”
+And the “Assessment Weight” field should contain “30”
+When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/editAssessmentTechnique/C01240101"
+Then I should be on “Assessment Techniques Edit Page”
+And the “Assessment Techniques” field should contain “Quiz”
+When I fill in “Assessment Weight” with “40”
+And I press “Save”
+Then the response should contain “Success! Assessment Technique has been updated.”</t>
+  </si>
+  <si>
+    <t>Scenario: Update Assessment Techniques Failed as the total weight of the assessments in the lesson plan exceeds 100.
+Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
+When I press “Lesson Plan”
+Then I should be on “Lesson Plan Page”
+And the "Lesson Plans Code" field should contain "C012401"
+And the "Academic Year" field should contain "2024"
+And the "Lesson Plan Semester" field should contain "1"
+When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
+Then I should be on "Lesson Plan Course Detail Page"
+And the "Course Code" field should contain "C01”
+When I press "Assessment Techniques"
+Then I should be on “Assessment Techniques Detail Page”
+And the “Assessment Techniques” field should contain “Quiz”
+And the “Assessment Weight” field should contain “30”
+When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/editAssessmentTechnique/C01240101"
+Then I should be on “Assessment Techniques Edit Page”
+And the “Assessment Techniques” field should contain “Quiz”
+When I fill in “Assessment Weight” with “105”
+And I press “Edit Assessment Technique”
+Then the response should contain “the total weight of the assessments in the lesson plan exceeds 100.”</t>
+  </si>
+  <si>
+    <t>Scenario: Update Assessment Techniques Failed Due to Empty Data Fields 
+Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
+When I press “Lesson Plan”
+Then I should be on “Lesson Plan Page”
+And the "Lesson Plans Code" field should contain "C012401"
+And the "Academic Year" field should contain "2024"
+And the "Lesson Plan Semester" field should contain "1"
+When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
+Then I should be on "Lesson Plan Course Detail Page"
+And the "Course Code" field should contain "C01”
+When I press "Assessment Techniques"
+Then I should be on “Assessment Techniques Detail Page”
+And the “Assessment Techniques” field should contain “Quiz”
+And the “Assessment Weight” field should contain “30”
+When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/editAssessmentTechnique/C01240101"
+Then I should be on “Assessment Techniques Edit Page”
+And the “Assessment Techniques” field should contain “Quiz”
+When I fill in “Assessment Weight” with “”
+And I press “Edit Assessment Technique”
+Then the response should contain “Assessment Weight field is required."</t>
+  </si>
+  <si>
+    <t>Scenario: Delete Assessment Techniques Successfully
+Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
+When I press “Lesson Plan”
+Then I should be on “Lesson Plan Page”
+And the "Lesson Plans Code" field should contain "C012401"
+And the "Academic Year" field should contain "2024"
+And the "Lesson Plan Semester" field should contain "1"
+When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
+Then I should be on "Lesson Plan Course Detail Page"
+And the "Course Code" field should contain "C01”
+When I press "Assessment Techniques"
+Then I should be on “Assessment Techniques Detail Page”
+And the “Assessment Techniques” field should contain “Quiz”
+And the “Assessment Weight” field should contain “30”
+When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/deleteAssessmentTechnique/C01240101"
+Then the response should contain “Success! The Assessment Technique has been deleted.”</t>
+  </si>
+  <si>
+    <t>Scenario: Read Lecturer Roles Successfully
+Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
+When I press “Lesson Plan”
+Then I should be on “Lesson Plan Page”
+And the "Lesson Plans Code" field should contain "C012401"
+And the "Academic Year" field should contain "2024"
+And the "Lesson Plan Semester" field should contain "1"
+When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
+Then I should be on "Lesson Plan Course Detail Page"
+And the "Course Code" field should contain "C01”
+When I press "Lecturer Roles"
+Then I should be on "Lecturer Roles Detail Page"
+And the "Role" field should contain "Lesson Plan Creator” 
+And the "NIP" field should contain "198110282006041003”
+And the "NIP" field should contain "Indra Kharisma R, S.Kom., M.T.”</t>
+  </si>
+  <si>
+    <t>Scenario: Read Weekly Lesson Plans Successfully
+Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
+When I press “Lesson Plan”
+Then I should be on “Lesson Plan Page”
+And the "Lesson Plans Code" field should contain "C012401"
+And the "Academic Year" field should contain "2024"
+And the "Lesson Plan Semester" field should contain "1"
+When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
+Then I should be on "Lesson Plan Course Detail Page"
+And the "Course Code" field should contain "C01”
+When I press "Weekly Lesson Plans"
+Then I should be on "Weekly Lesson Plans Detail Page"
+And the "Week Number" field should contain "1” 
+And the "Course Specific Outcome" field should contain "CSO0111 - Proficient in clarifying fundamental concepts within systems."
+And the "Course Materials" field should contain "Types of data in Statistics."
+And the "Form of Learning" field should contain "Practice"
+And the "Learning Method" field should contain "Problem Based Learning"
+And the "Task" field should contain "Survey Analysis: Identifying Data Types"
+And the "Learning Approach" field should contain "Offline"
+And the "Learning Media" field should contain "LMS" 
+And the "Time of Learning" field should contain "1x3x50 minutes"
+And the "Learning Experience" field should contain "Ability to understand and summarize the material taught."
+And the "Assessment Criteria" field should contain "SBP Criteria"  
+And the "References" field should contain "Applied Multivariate Statistical Analysis" 
+And the "Reference Description" field should contain "Provides a comprehensive overview and practical guidance on employing multivariate statistical techniques in analyzing complex data sets"</t>
+  </si>
+  <si>
+    <t>Scenario: Read Assessment Techniques Successfully
+Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
+When I press “Lesson Plan”
+Then I should be on “Lesson Plan Page”
+And the "Lesson Plans Code" field should contain "C012401"
+And the "Academic Year" field should contain "2024"
+And the "Lesson Plan Semester" field should contain "1"
+When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
+Then I should be on "Lesson Plan Course Detail Page"
+And the "Course Code" field should contain "C01”
+When I press "Assessment Techniques"
+Then I should be on “Assessment Techniques Detail Page”
+And the “Assessment Techniques” field should contain “Quiz”
+And the “Assessment Weight” field should contain “30”</t>
+  </si>
+  <si>
+    <t>Scenario: Read Assessment Techniques Failed due to unavailability
+Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
+When I press “Lesson Plan”
+Then I should be on “Lesson Plan Page”
+And the "Lesson Plans Code" field should contain "C012401"
+And the "Academic Year" field should contain "2024"
+And the "Lesson Plan Semester" field should contain "1"
+When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
+Then I should be on "Lesson Plan Course Detail Page"
+And the "Course Code" field should contain "C01”
+When I press "Assessment Techniques"
+Then I should be on “Assessment Techniques Detail Page”
+And the response should contain “Assessment Techniques are not available.”</t>
+  </si>
+  <si>
+    <t>Scenario: Delete mapping between Program Learning Outcomes, Course Learning Outcomes, and Courses Successfully
 Given I am on “http://127.0.0.1:8000/dashboard/curriculum”
 When I press “Mapping”
 And I press “Mapping between Program Learning Outcomes, Course Learning Outcomes, and Courses”
@@ -3774,285 +3918,6 @@
 And the "Program Outcomes Code" field should contain "PO1"
 And the "Course Learning Outcome Code" field should contain "CLO011"
 And the "Course" field should contain "No courses have been selected"</t>
-  </si>
-  <si>
-    <t>Read Mapping between Course, Course Learning Outcomes, and Course Specific Outcomes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenario: Login Successfully as Curriculum Team Member
-Given I am on “http://127.0.0.1:8000/login”
-When I fill in “NIP” with “197801262006041001”
-And I fill in “Password” with “coba123”
-And I press “Login”
-Then the url should match “http://127.0.0.1:8000/dashboard/curriculum”
-And the “Lecturer Name” field should contain “Badrus Zaman, S.Kom., M.Cs.”	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenario: Login Successfully as Lecturer 
-Given I am on “http://127.0.0.1:8000/login”
-When I fill in “NIP” with “198110282006041003”
-And I fill in “Password” with “coba123”
-And I press “Login”
-Then the url should match “http://127.0.0.1:8000/dashboard/lecturer”
-And the “Lecturer Name” field should contain “Indra Kharisma R, S.Kom., M.T.”"	</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Scenario: Log out Successfully 
-Given I am on “http://127.0.0.1:8000/dashboard/admin”
-When I press "Log Out"
-Then the url should match “http://127.0.0.1:8000/login”</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In order to log in to the system in case I forget my password
-As Lecturer,
-I want the capability to reset my password </t>
-  </si>
-  <si>
-    <t>In order to secure my account
-As Lecturer,
-I want the capability to change my password</t>
-  </si>
-  <si>
-    <t>Scenario: Create Learning Methods Failed Due to Empty Data Fields
-Given I am on “http://127.0.0.1:8000/dashboard/curriculum”
-When I press “Data”
-And I press “Learning Methods”
-Then I should be on “Learning Methods Page”
-When I press “Add Learning Methods”
-Then I should be on “Learning Methods Creation Page”
-When I fill in “Learning Method Name” with “Problem Based Learning”
-And I press “Add Learning Method”
-Then the response should contain “Learning Method Description field is required”.</t>
-  </si>
-  <si>
-    <t>Scenario: Update Learning Methods Successfully
-Given I am on “http://127.0.0.1:8000/dashboard/curriculum”
-When I press “Data”
-And I press “Learning Methods”
-Then I should be on “Learning Methods Page”
-And the “Learning Methods Name” field should contain “Problem Based Learning”
-When I follow "http://127.0.0.1:8000/dashboard/curriculum/data/editLearningMethods/1"
-Then I should be on “Learning Methods Edit Page”
-And the “Learning Method Name” field should contain “Problem Based Learning”
-When I fill in “Learning Method Description” with “Problem-Based Learning (PBL) is an instructional method that places emphasis on active learning, critical thinking, and problem-solving skills.”
-And I press “Edit Learning Method”
-Then the response should contain “Success! Learning Method has been updated.”</t>
-  </si>
-  <si>
-    <t>Scenario: Update Learning Methods failed Due to Empty Data Fields
-Given I am on “http://127.0.0.1:8000/dashboard/curriculum”
-When I press “Data”
-And I press “Learning Methods”
-Then I should be on “Learning Methods Page”
-And the “Learning Methods Name” field should contain “Problem Based Learning”
-When I follow "http://127.0.0.1:8000/dashboard/curriculum/data/editLearningMethods/1"
-Then I should be on “Learning Methods Edit Page”
-And the “Learning Method Name” field should contain “Problem Based Learning”
-When I fill in “Learning Method Description” with “”
-And I press “Edit Learning Method”
-Then the response should contain “Learning Method Description field is required”.</t>
-  </si>
-  <si>
-    <t>Scenario: Update Forms of Learning failed Due to Empty Data Fields
-Given I am on “http://127.0.0.1:8000/dashboard/curriculum”
-When I press “Data”
-And I press “Learning Methods”
-Then I should be on “Learning Methods Page”
-And the “Forms of Learning Name” field should contain “Practice”
-When I follow "http://127.0.0.1:8000/dashboard/curriculum/data/editFormsOfLearning/1"
-Then I should be on “Forms of Learning Edit Page”
-And the “Forms of Learning Name” field should contain “Practice”
-When I fill in “Forms of Learning Description” with “”
-And I press “Edit Learning Method”
-Then the response should contain “Form of Learning Description field is required”.</t>
-  </si>
-  <si>
-    <t>Scenario: Update Forms of Learning Successfully
-Given I am on “http://127.0.0.1:8000/dashboard/curriculum”
-When I press “Data”
-And I press “Learning Methods”
-Then I should be on “Learning Methods Page”
-And the “Forms of Learning Name” field should contain “Practice”
-When I follow "http://127.0.0.1:8000/dashboard/curriculum/data/editFormsOfLearning/1"
-Then I should be on “Forms of Learning Edit Page”
-And the “Forms of Learning Name” field should contain “Practice”
-When I fill in “Forms of Learning Description” with “a hands-on learning experience where students apply theoretical knowledge in a practical setting, often in a laboratory, workshop, or other controlled environment.”
-And I press “Edit Learning Method”
-Then the response should contain “Success! Form of Learning has been updated.”</t>
-  </si>
-  <si>
-    <t>Scenario: Update Learning Media failed Due to Empty Data Fields
-Given I am on “http://127.0.0.1:8000/dashboard/curriculum”
-When I press “Data”
-And I press “Learning Methods”
-Then I should be on “Learning Methods Page”
-And the “Learning Media Name” field should contain “LMS”
-When I follow "http://127.0.0.1:8000/dashboard/curriculum/data/editLearningMedia/1"
-Then I should be on “Learning Media Edit Page”
-And the “Learning Media Name” field should contain “LMS”
-When I fill in “Learning Media Description” with “”
-And I press “Edit Learning Method”
-Then the response should contain “Learning Media Description field is required”.</t>
-  </si>
-  <si>
-    <t>Scenario: Update Learning Media Successfully
-Given I am on “http://127.0.0.1:8000/dashboard/curriculum”
-When I press “Data”
-And I press “Learning Methods”
-Then I should be on “Learning Methods Page”
-And the “Learning Media Name” field should contain “LMS”
-When I follow "http://127.0.0.1:8000/dashboard/curriculum/data/editLearningMedia/1"
-Then I should be on “Learning Media Edit Page”
-And the “Learning Media Name” field should contain “LMS”
-When I fill in “Learning Media Description” with “Platform that facilitates the administration, documentation, tracking, reporting, and delivery of educational courses, training programs, or learning and development programs.”
-Then the response should contain “Success! Learning Media has been updated.”</t>
-  </si>
-  <si>
-    <t>Scenario: Update Assessment Criteria failed Due to Empty Data Fields
-Given I am on “http://127.0.0.1:8000/dashboard/curriculum”
-When I press “Data”
-And I press “Assessment Criteria”
-Then I should be on “Assessment Criteria Page”
-And the “Assessment Criteria Name” field should contain “SBP Criteria”
-When I follow "http://127.0.0.1:8000/dashboard/curriculum/data/editLearningMethods/1"
-Then I should be on “Assessment Criteria Edit Page”
-And the “Assessment Criteria Name” field should contain “SBP Criteria”
-When I fill in “Assessment Criteria Description” with “”
-And I press “Edit Assessment Criteria”
-Then the response should contain “Assessment Criteria Description field is required”.</t>
-  </si>
-  <si>
-    <t>Scenario: Update Assessment Criteria Successfully
-Given I am on “http://127.0.0.1:8000/dashboard/curriculum”
-When I press “Data”
-And I press “Assessment Criteria”
-Then I should be on “Assessment Criteria Page”
-And the “Assessment Criteria Name” field should contain “SBP Criteria”
-When I follow "http://127.0.0.1:8000/dashboard/curriculum/data/editLearningMethods/1"
-Then I should be on “Assessment Criteria Edit Page”
-And the “Assessment Criteria Name” field should contain “SBP Criteria”
-When I fill in “Assessment Criteria Description” with “Comprehension of the material, clarity in understanding tasks, diligence in completing assignments, and active participation in discussions.”
-And I press “Edit Assessment Criteria”
-Then the response should contain “Success! Assessment Criteria has been updated.”</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>XL</t>
-  </si>
-  <si>
-    <t>XXL</t>
-  </si>
-  <si>
-    <t>Scenario: Create Assessment Technique Successfully
-Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
-When I press “Lesson Plan”
-Then I should be on “Lesson Plan Page”
-And the "Lesson Plans Code" field should contain "C012401"
-And the "Course Name" field should contain "Descriptive Statistics"
-And the "Academic Year" field should contain "2024"
-And the "Lesson Plan Semester" field should contain "1"
-When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
-Then I should be on "Lesson Plan Course Detail Page"
-And the "Course Code" field should contain "C01”
-And the "Course Name" field should contain "Descriptive Statistics”
-And the "Course Credits" field should contain "3”
-And the "Semester" field should contain "3”
-And the "Study Program" field should contain "S1 Information Systems"
-And the "Program Learning Outcome" field should contain "PLO1 - Possess the capability for life-long learning.”
-And the “Course Learning Outcome” field should contain “CLO011 - Skilled in articulating fundamental concepts of systems.”
-And the “Course Description” with “Delve into the core principles of Descriptive Statistics, acquiring crucial skills in efficiently organizing and summarizing data to inform strategic decision-making within the realm of Information Systems.”
-And the “Course Prerequisite” field should contain "None"
-When I press "Assessment Techniques"
-Then I should be on “Assessment Techniques Detail Page”
-When I press “Add”
-Then I should be on “Assessment Techniques Creation Page”
-When I fill in “Assessment Techniques Name” with “Quiz”
-And I fill in “Assessment Weight” with “30”
-And I select "SBP Criteria" from "Assessment Criteria" 
-And I fill in “Assessment Stage” with “Beginning of semester”
-And I fill in “Assessment Instrument” with “Holistic rubric”
-And I press “Add Assessment Techniques”
-Then The response should contain “Success! Assessment Technique has been added.”</t>
-  </si>
-  <si>
-    <t>Scenario: Create Assessment Technique Failed as the total weight of the assessments in the lesson plan exceeds 100.
-Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
-When I press “Lesson Plan”
-Then I should be on “Lesson Plan Page”
-And the "Lesson Plans Code" field should contain "C012401"
-And the "Course Name" field should contain "Descriptive Statistics"
-And the "Academic Year" field should contain "2024"
-And the "Lesson Plan Semester" field should contain "1"
-When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
-Then I should be on "Lesson Plan Course Detail Page"
-And the "Course Code" field should contain "C01”
-And the "Course Name" field should contain "Descriptive Statistics”
-And the "Course Credits" field should contain "3”
-And the "Semester" field should contain "3”
-And the "Study Program" field should contain "S1 Information Systems"
-And the "Program Learning Outcome" field should contain "PLO1 - Possess the capability for life-long learning.”
-And the “Course Learning Outcome” field should contain “CLO011 - Skilled in articulating fundamental concepts of systems.”
-And the “Course Description” with “Delve into the core principles of Descriptive Statistics, acquiring crucial skills in efficiently organizing and summarizing data to inform strategic decision-making within the realm of Information Systems.”
-And the “Course Prerequisite” field should contain "None"
-When I press "Assessment Techniques"
-Then I should be on “Assessment Techniques Detail Page”
-When I press “Add”
-Then I should be on “Assessment Techniques Creation Page”
-When I fill in “Assessment Techniques Name” with “Quiz”
-And I fill in “Assessment Weight” with “105”
-And I select "SBP Criteria" from "Assessment Criteria" 
-And I fill in “Assessment Stage” with “Beginning of semester”
-And I fill in “Assessment Instrument” with “Holistic rubric”
-And I press “Add Assessment Techniques”
-Then The response should contain “the total weight of the assessments in the lesson plan exceeds 100.”</t>
-  </si>
-  <si>
-    <t>Scenario: Create Assessment Technique Failed Due to Empty Data Fields
-Given I am on “http://127.0.0.1:8000/dashboard/lecturer”
-When I press “Lesson Plan”
-Then I should be on “Lesson Plan Page”
-And the "Lesson Plans Code" field should contain "C012401"
-And the "Course Name" field should contain "Descriptive Statistics"
-And the "Academic Year" field should contain "2024"
-And the "Lesson Plan Semester" field should contain "1"
-When I follow "http://127.0.0.1:8000/dashboard/lessonPlan/edit/course/C012401"
-Then I should be on "Lesson Plan Course Detail Page"
-And the "Course Code" field should contain "C01”
-And the "Course Name" field should contain "Descriptive Statistics”
-And the "Course Credits" field should contain "3”
-And the "Semester" field should contain "3”
-And the "Study Program" field should contain "S1 Information Systems"
-And the "Program Learning Outcome" field should contain "PLO1 - Possess the capability for life-long learning.”
-And the “Course Learning Outcome” field should contain “CLO011 - Skilled in articulating fundamental concepts of systems.”
-And the “Course Description” with “Delve into the core principles of Descriptive Statistics, acquiring crucial skills in efficiently organizing and summarizing data to inform strategic decision-making within the realm of Information Systems.”
-And the “Course Prerequisite” field should contain "None"
-When I press "Assessment Techniques"
-Then I should be on “Assessment Techniques Detail Page”
-When I press “Add”
-Then I should be on “Assessment Techniques Creation Page”
-When I fill in “Assessment Techniques Name” with “Quiz”
-And I select "SBP Criteria" from "Assessment Criteria" 
-And I fill in “Assessment Stage” with “End of semester”
-And I fill in “Assessment Instrument” with “Holistic rubric”
-And I press “Add Assessment Techniques”
-Then the response should contain “Assessment Weight field is required”.</t>
-  </si>
-  <si>
-    <t>User Story</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>Effort</t>
   </si>
 </sst>
 </file>
@@ -4212,10 +4077,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4224,17 +4086,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4553,8 +4418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5B16C3-8ABE-4250-9B74-2EDEF84EEED4}">
   <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4572,129 +4437,129 @@
         <v>10</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>500</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>500</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>500</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>500</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>500</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>500</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>500</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>500</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>500</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>500</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>500</v>
+        <v>483</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>484</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="331.5" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B2" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>458</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>470</v>
-      </c>
       <c r="D2" s="27" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="N2" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="29"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
       <c r="N3" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
       <c r="N4" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
       <c r="N5" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="178.5" x14ac:dyDescent="0.25">
@@ -4708,15 +4573,15 @@
         <v>86</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="N6" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
@@ -4727,10 +4592,10 @@
         <v>74</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>87</v>
@@ -4740,7 +4605,7 @@
       </c>
       <c r="G7" s="10"/>
       <c r="N7" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="165.75" x14ac:dyDescent="0.25">
@@ -4754,15 +4619,15 @@
         <v>142</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="N8" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="102" x14ac:dyDescent="0.25">
@@ -4776,13 +4641,13 @@
         <v>143</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="N9" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="229.5" x14ac:dyDescent="0.25">
@@ -4796,15 +4661,15 @@
         <v>91</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="N10" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
@@ -4815,10 +4680,10 @@
         <v>47</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>89</v>
@@ -4828,7 +4693,7 @@
       </c>
       <c r="G11" s="10"/>
       <c r="N11" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="178.5" x14ac:dyDescent="0.25">
@@ -4842,15 +4707,15 @@
         <v>136</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="N12" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="114.75" x14ac:dyDescent="0.25">
@@ -4864,13 +4729,13 @@
         <v>137</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="N13" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="191.25" x14ac:dyDescent="0.25">
@@ -4884,15 +4749,15 @@
         <v>92</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="N14" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
@@ -4903,10 +4768,10 @@
         <v>56</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>343</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>345</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>93</v>
@@ -4916,7 +4781,7 @@
       </c>
       <c r="G15" s="10"/>
       <c r="N15" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="165.75" x14ac:dyDescent="0.25">
@@ -4930,18 +4795,18 @@
         <v>138</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="N16" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="114.75" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="102" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>54</v>
       </c>
@@ -4952,13 +4817,13 @@
         <v>139</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="N17" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="165.75" x14ac:dyDescent="0.25">
@@ -4972,15 +4837,15 @@
         <v>104</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="N18" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
@@ -4991,20 +4856,20 @@
         <v>38</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>95</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G19" s="10"/>
       <c r="N19" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="153" x14ac:dyDescent="0.25">
@@ -5018,15 +4883,15 @@
         <v>120</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="N20" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="102" x14ac:dyDescent="0.25">
@@ -5040,13 +4905,13 @@
         <v>121</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="N21" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="293.25" x14ac:dyDescent="0.25">
@@ -5060,17 +4925,17 @@
         <v>260</v>
       </c>
       <c r="D22" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>356</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>358</v>
       </c>
       <c r="G22" s="10"/>
       <c r="N22" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
@@ -5081,10 +4946,10 @@
         <v>65</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>96</v>
@@ -5094,7 +4959,7 @@
       </c>
       <c r="G23" s="10"/>
       <c r="N23" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="178.5" x14ac:dyDescent="0.25">
@@ -5108,17 +4973,17 @@
         <v>140</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="G24" s="28"/>
       <c r="N24" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="102" x14ac:dyDescent="0.25">
@@ -5132,13 +4997,13 @@
         <v>141</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="N25" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="204" x14ac:dyDescent="0.25">
@@ -5152,15 +5017,15 @@
         <v>98</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="N26" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
@@ -5171,10 +5036,10 @@
         <v>22</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>99</v>
@@ -5184,7 +5049,7 @@
       </c>
       <c r="G27" s="10"/>
       <c r="N27" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="165.75" x14ac:dyDescent="0.25">
@@ -5198,15 +5063,15 @@
         <v>146</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="N28" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="114.75" x14ac:dyDescent="0.25">
@@ -5220,13 +5085,13 @@
         <v>147</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="N29" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="191.25" x14ac:dyDescent="0.25">
@@ -5240,15 +5105,15 @@
         <v>103</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="N30" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
@@ -5259,10 +5124,10 @@
         <v>83</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>101</v>
@@ -5272,7 +5137,7 @@
       </c>
       <c r="G31" s="10"/>
       <c r="N31" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="165.75" x14ac:dyDescent="0.25">
@@ -5286,15 +5151,15 @@
         <v>144</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="N32" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="114.75" x14ac:dyDescent="0.25">
@@ -5308,13 +5173,13 @@
         <v>145</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="N33" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="165.75" x14ac:dyDescent="0.25">
@@ -5328,11 +5193,11 @@
         <v>173</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E34" s="11"/>
       <c r="N34" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
@@ -5343,10 +5208,10 @@
         <v>170</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>174</v>
@@ -5355,7 +5220,7 @@
         <v>175</v>
       </c>
       <c r="N35" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="153" x14ac:dyDescent="0.25">
@@ -5369,11 +5234,11 @@
         <v>176</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E36" s="11"/>
       <c r="N36" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="102" x14ac:dyDescent="0.25">
@@ -5387,10 +5252,10 @@
         <v>177</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="N37" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="165.75" x14ac:dyDescent="0.25">
@@ -5404,10 +5269,10 @@
         <v>204</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="N38" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
@@ -5418,15 +5283,15 @@
         <v>181</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="N39" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="165.75" x14ac:dyDescent="0.25">
@@ -5437,13 +5302,13 @@
         <v>183</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="N40" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="102" x14ac:dyDescent="0.25">
@@ -5457,10 +5322,10 @@
         <v>206</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="N41" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="153" x14ac:dyDescent="0.25">
@@ -5474,10 +5339,10 @@
         <v>207</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N42" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
@@ -5488,15 +5353,15 @@
         <v>193</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="N43" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="178.5" x14ac:dyDescent="0.25">
@@ -5507,13 +5372,13 @@
         <v>194</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="N44" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="102" x14ac:dyDescent="0.25">
@@ -5527,10 +5392,10 @@
         <v>205</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N45" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="165.75" x14ac:dyDescent="0.25">
@@ -5544,10 +5409,10 @@
         <v>208</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N46" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
@@ -5558,13 +5423,13 @@
         <v>201</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="N47" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="165.75" x14ac:dyDescent="0.25">
@@ -5575,13 +5440,13 @@
         <v>202</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="N48" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="102" x14ac:dyDescent="0.25">
@@ -5595,10 +5460,10 @@
         <v>209</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N49" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="153" x14ac:dyDescent="0.25">
@@ -5612,10 +5477,10 @@
         <v>218</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="N50" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
@@ -5626,13 +5491,13 @@
         <v>213</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N51" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="165.75" x14ac:dyDescent="0.25">
@@ -5643,13 +5508,13 @@
         <v>215</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="N52" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="102" x14ac:dyDescent="0.25">
@@ -5663,10 +5528,10 @@
         <v>219</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N53" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="102" x14ac:dyDescent="0.25">
@@ -5677,10 +5542,10 @@
         <v>222</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>224</v>
@@ -5689,7 +5554,7 @@
         <v>225</v>
       </c>
       <c r="N54" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="153" x14ac:dyDescent="0.25">
@@ -5700,53 +5565,53 @@
         <v>148</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N55" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B56" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="C56" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="C56" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>307</v>
-      </c>
       <c r="F56" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N56" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="153" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>306</v>
-      </c>
       <c r="C57" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N57" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="127.5" x14ac:dyDescent="0.25">
@@ -5757,10 +5622,10 @@
         <v>149</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>152</v>
@@ -5769,7 +5634,7 @@
         <v>153</v>
       </c>
       <c r="N58" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="140.25" x14ac:dyDescent="0.25">
@@ -5780,10 +5645,10 @@
         <v>230</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>233</v>
@@ -5792,7 +5657,7 @@
         <v>234</v>
       </c>
       <c r="N59" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="229.5" x14ac:dyDescent="0.25">
@@ -5806,16 +5671,16 @@
         <v>232</v>
       </c>
       <c r="D60" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="F60" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="E60" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>411</v>
-      </c>
       <c r="N60" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="153" x14ac:dyDescent="0.25">
@@ -5826,10 +5691,10 @@
         <v>159</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>160</v>
@@ -5838,7 +5703,7 @@
         <v>161</v>
       </c>
       <c r="N61" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="127.5" x14ac:dyDescent="0.25">
@@ -5849,10 +5714,10 @@
         <v>239</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>240</v>
@@ -5861,7 +5726,7 @@
         <v>241</v>
       </c>
       <c r="N62" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="178.5" x14ac:dyDescent="0.25">
@@ -5872,13 +5737,13 @@
         <v>16</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="N63" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="114.75" x14ac:dyDescent="0.25">
@@ -5889,10 +5754,10 @@
         <v>244</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>245</v>
@@ -5901,7 +5766,7 @@
         <v>246</v>
       </c>
       <c r="N64" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="153" x14ac:dyDescent="0.25">
@@ -5912,13 +5777,13 @@
         <v>17</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="N65" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="165.75" x14ac:dyDescent="0.25">
@@ -5929,10 +5794,10 @@
         <v>249</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>250</v>
@@ -5941,7 +5806,7 @@
         <v>251</v>
       </c>
       <c r="N66" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="242.25" x14ac:dyDescent="0.25">
@@ -5952,13 +5817,13 @@
         <v>150</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="N67" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="114.75" x14ac:dyDescent="0.25">
@@ -5969,10 +5834,10 @@
         <v>151</v>
       </c>
       <c r="C68" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="D68" s="13" t="s">
         <v>425</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>427</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>155</v>
@@ -5981,21 +5846,21 @@
         <v>154</v>
       </c>
       <c r="N68" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>156</v>
       </c>
       <c r="C69" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="D69" s="13" t="s">
         <v>426</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>428</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>157</v>
@@ -6004,7 +5869,7 @@
         <v>158</v>
       </c>
       <c r="N69" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="204" x14ac:dyDescent="0.25">
@@ -6018,14 +5883,14 @@
         <v>256</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F70" s="13"/>
       <c r="N70" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="102" x14ac:dyDescent="0.25">
@@ -6033,13 +5898,13 @@
         <v>30</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E71" s="25" t="s">
         <v>257</v>
@@ -6048,27 +5913,27 @@
         <v>258</v>
       </c>
       <c r="N71" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="153" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="N72" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
@@ -6079,148 +5944,148 @@
         <v>262</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="G73" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="H73" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="I73" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="J73" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="K73" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="L73" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="M73" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="H73" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="I73" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="J73" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="K73" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="L73" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="M73" s="20" t="s">
-        <v>265</v>
-      </c>
       <c r="N73" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>440</v>
+        <v>498</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>441</v>
+        <v>499</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="H74" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N74" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="318.75" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="D75" s="20"/>
       <c r="N75" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="N76" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="D77" s="20"/>
       <c r="N77" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C78" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="C78" s="20" t="s">
-        <v>280</v>
-      </c>
       <c r="D78" s="20" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="N78" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C79" s="20" t="s">
         <v>279</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>281</v>
       </c>
       <c r="D79" s="20"/>
       <c r="N79" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
@@ -6283,13 +6148,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+      <c r="A2" s="31">
         <v>9</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>68</v>
       </c>
       <c r="D2" s="19" t="s">
@@ -6300,11 +6165,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="19" t="s">
         <v>70</v>
       </c>
@@ -6313,11 +6178,11 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="19" t="s">
         <v>71</v>
       </c>
@@ -6326,11 +6191,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="32"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="19" t="s">
         <v>72</v>
       </c>
@@ -6339,13 +6204,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="31">
         <v>9</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="32" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="19" t="s">
@@ -6356,11 +6221,11 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="19" t="s">
         <v>43</v>
       </c>
@@ -6369,11 +6234,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="33"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="19" t="s">
         <v>44</v>
       </c>
@@ -6382,11 +6247,11 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="33"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="19" t="s">
         <v>45</v>
       </c>
@@ -6395,13 +6260,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="31">
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -6412,11 +6277,11 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="32"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="19" t="s">
         <v>52</v>
       </c>
@@ -6425,11 +6290,11 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="19" t="s">
         <v>53</v>
       </c>
@@ -6438,11 +6303,11 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="19" t="s">
         <v>54</v>
       </c>
@@ -6451,13 +6316,13 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+      <c r="A14" s="31">
         <v>9</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="31" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="19" t="s">
@@ -6468,11 +6333,11 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="32"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="19" t="s">
         <v>34</v>
       </c>
@@ -6481,11 +6346,11 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="32"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="19" t="s">
         <v>35</v>
       </c>
@@ -6494,11 +6359,11 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="32"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="19" t="s">
         <v>36</v>
       </c>
@@ -6507,13 +6372,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="A18" s="31">
         <v>9</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D18" s="19" t="s">
@@ -6524,11 +6389,11 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="33"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="19" t="s">
         <v>60</v>
       </c>
@@ -6537,11 +6402,11 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="19" t="s">
         <v>61</v>
       </c>
@@ -6550,11 +6415,11 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="33"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="19" t="s">
         <v>62</v>
       </c>
@@ -6563,13 +6428,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
+      <c r="A22" s="31">
         <v>4</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="31" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="19" t="s">
@@ -6580,11 +6445,11 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="32"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="19" t="s">
         <v>21</v>
       </c>
@@ -6593,11 +6458,11 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="32"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="19" t="s">
         <v>24</v>
       </c>
@@ -6606,11 +6471,11 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="32"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="19" t="s">
         <v>26</v>
       </c>
@@ -6619,13 +6484,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="32">
+      <c r="A26" s="31">
         <v>9</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="32" t="s">
         <v>77</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -6636,11 +6501,11 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="33"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="19" t="s">
         <v>79</v>
       </c>
@@ -6649,11 +6514,11 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="33"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="19" t="s">
         <v>80</v>
       </c>
@@ -6662,11 +6527,11 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="19" t="s">
         <v>81</v>
       </c>
@@ -6675,338 +6540,338 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="31" t="s">
         <v>162</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="32" t="s">
         <v>163</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>165</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="33"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="19" t="s">
         <v>166</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="33"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="19" t="s">
         <v>167</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="33"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="19" t="s">
         <v>168</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="31" t="s">
         <v>162</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="32" t="s">
         <v>178</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>179</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="33"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="19" t="s">
         <v>180</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="33"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="19" t="s">
         <v>182</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="33"/>
+      <c r="C37" s="32"/>
       <c r="D37" s="19" t="s">
         <v>184</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="31" t="s">
         <v>162</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="32" t="s">
         <v>187</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>188</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="33"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="19" t="s">
         <v>189</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="33"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="19" t="s">
         <v>190</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="33"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="19" t="s">
         <v>191</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="31" t="s">
         <v>162</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="32" t="s">
         <v>263</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>196</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="33"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="19" t="s">
         <v>197</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="33"/>
+      <c r="C44" s="32"/>
       <c r="D44" s="19" t="s">
         <v>198</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="33"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="19" t="s">
         <v>199</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="31" t="s">
         <v>162</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="32" t="s">
         <v>164</v>
       </c>
       <c r="D46" s="19" t="s">
         <v>210</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="33"/>
+      <c r="C47" s="32"/>
       <c r="D47" s="19" t="s">
         <v>212</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="33"/>
+      <c r="C48" s="32"/>
       <c r="D48" s="19" t="s">
         <v>214</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="33"/>
+      <c r="C49" s="32"/>
       <c r="D49" s="19" t="s">
         <v>216</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="31">
+      <c r="A50" s="33">
         <v>1</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="33" t="s">
         <v>0</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E50" s="36" t="s">
-        <v>311</v>
+      <c r="E50" s="37" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C51" s="31"/>
+      <c r="C51" s="33"/>
       <c r="D51" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E51" s="35"/>
     </row>
     <row r="52" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="31">
+      <c r="A52" s="33">
         <v>3</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="33" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E52" s="36" t="s">
-        <v>310</v>
+        <v>301</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C53" s="31"/>
+      <c r="C53" s="33"/>
       <c r="D53" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E53" s="35"/>
     </row>
@@ -7024,32 +6889,32 @@
         <v>227</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="30">
+      <c r="A55" s="34">
         <v>4</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="E55" s="36" t="s">
-        <v>313</v>
+      <c r="E55" s="37" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
+      <c r="A56" s="34"/>
       <c r="B56" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="C56" s="30"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="15" t="s">
         <v>229</v>
       </c>
@@ -7069,93 +6934,93 @@
         <v>238</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="31">
+      <c r="A58" s="33">
         <v>7</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="33" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>235</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
+      <c r="A59" s="33"/>
       <c r="B59" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="C59" s="31"/>
+      <c r="C59" s="33"/>
       <c r="D59" s="20" t="s">
         <v>236</v>
       </c>
       <c r="E59" s="35"/>
     </row>
     <row r="60" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="31">
+      <c r="A60" s="33">
         <v>10</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="33" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="E60" s="36" t="s">
-        <v>309</v>
+      <c r="E60" s="37" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
+      <c r="A61" s="33"/>
       <c r="B61" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="C61" s="31"/>
+      <c r="C61" s="33"/>
       <c r="D61" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="E61" s="36"/>
+      <c r="E61" s="37"/>
     </row>
     <row r="62" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="31">
+      <c r="A62" s="33">
         <v>11</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="33" t="s">
         <v>6</v>
       </c>
       <c r="D62" s="20" t="s">
         <v>248</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
+      <c r="A63" s="33"/>
       <c r="B63" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="C63" s="31"/>
+      <c r="C63" s="33"/>
       <c r="D63" s="20" t="s">
         <v>247</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -7172,7 +7037,7 @@
         <v>252</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -7189,7 +7054,7 @@
         <v>253</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -7199,14 +7064,14 @@
       <c r="B66" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="36" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="19" t="s">
         <v>29</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -7214,12 +7079,12 @@
       <c r="B67" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="34"/>
+      <c r="C67" s="36"/>
       <c r="D67" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -7227,12 +7092,12 @@
       <c r="B68" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C68" s="34"/>
+      <c r="C68" s="36"/>
       <c r="D68" s="19" t="s">
         <v>261</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -7240,85 +7105,85 @@
       <c r="B69" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="34"/>
+      <c r="C69" s="36"/>
       <c r="D69" s="19" t="s">
         <v>254</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="34" t="s">
         <v>162</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="31" t="s">
-        <v>267</v>
+      <c r="C70" s="33" t="s">
+        <v>265</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="30"/>
+      <c r="A71" s="34"/>
       <c r="B71" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="31"/>
+      <c r="C71" s="33"/>
       <c r="D71" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="34" t="s">
         <v>162</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C72" s="31" t="s">
-        <v>272</v>
+      <c r="C72" s="33" t="s">
+        <v>270</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="30"/>
+      <c r="A73" s="34"/>
       <c r="B73" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C73" s="31"/>
+      <c r="C73" s="33"/>
       <c r="D73" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="30"/>
+      <c r="A74" s="34"/>
       <c r="B74" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C74" s="31"/>
+      <c r="C74" s="33"/>
       <c r="D74" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
